--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722C840-6E42-4201-BFB9-FDA92B9AA092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D489261A-C15F-443F-BEE8-A590916B88DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7872" yWindow="1560" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColdWeaponData" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="126">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -497,6 +497,25 @@
   </si>
   <si>
     <t>木棍*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>物品体积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1486,11 +1505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991DBC-989A-4537-A558-911F7EAAFE0A}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1499,15 +1518,15 @@
     <col min="2" max="2" width="7.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="4"/>
-    <col min="6" max="6" width="7.5546875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="29.88671875" style="4" customWidth="1"/>
-    <col min="9" max="17" width="12.5546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" style="12"/>
-    <col min="19" max="16384" width="16.21875" style="4"/>
+    <col min="5" max="6" width="16.21875" style="4"/>
+    <col min="7" max="7" width="7.5546875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="29.88671875" style="4" customWidth="1"/>
+    <col min="10" max="18" width="12.5546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" style="12"/>
+    <col min="20" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1524,46 +1543,49 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -1580,46 +1602,49 @@
         <v>27</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1636,47 +1661,50 @@
         <v>11</v>
       </c>
       <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4">
-        <v>15</v>
-      </c>
       <c r="J3" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>1</v>
       </c>
       <c r="N3" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O3" s="4">
         <v>10</v>
       </c>
       <c r="P3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4">
         <v>360</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>10</v>
       </c>
-      <c r="R3" s="12">
-        <f>I3/L3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="12">
+        <f>J3/M3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1693,62 +1721,65 @@
         <v>11</v>
       </c>
       <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>15</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.2</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>5</v>
       </c>
       <c r="O4" s="4">
         <v>5</v>
       </c>
       <c r="P4" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4">
         <v>200</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>30</v>
       </c>
-      <c r="R4" s="12">
-        <f>I4/L4</f>
+      <c r="S4" s="12">
+        <f>J4/M4</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>10003</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>10004</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>10005</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>10006</v>
       </c>
@@ -1756,42 +1787,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>10007</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>10008</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>10009</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>10010</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>10011</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10012</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>10013</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>10014</v>
       </c>
@@ -1814,23 +1845,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7A0F4-E31D-4926-81F2-2CBD1758CCB6}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.21875" style="4"/>
-    <col min="3" max="3" width="16.21875" style="68"/>
-    <col min="4" max="6" width="16.21875" style="4"/>
-    <col min="7" max="8" width="27.6640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="16.21875" style="4"/>
+    <col min="3" max="4" width="16.21875" style="68"/>
+    <col min="5" max="7" width="16.21875" style="4"/>
+    <col min="8" max="9" width="27.6640625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1841,25 +1872,28 @@
         <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -1870,25 +1904,28 @@
         <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1898,26 +1935,29 @@
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>119</v>
       </c>
@@ -1927,26 +1967,29 @@
       <c r="C4" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="68">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
@@ -1956,26 +1999,29 @@
       <c r="C5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="68">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>-1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>115</v>
       </c>
@@ -1985,74 +2031,77 @@
       <c r="C6" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="68">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>20004</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>20005</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>20006</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>20007</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>20008</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>20009</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>20010</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>20011</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>20012</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>20013</v>
       </c>
@@ -2085,11 +2134,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F38427-84D0-419A-A5AE-FCDD1DFD5083}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2099,23 +2148,23 @@
     <col min="3" max="3" width="16.21875" style="68"/>
     <col min="4" max="4" width="4.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="3.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7" style="70" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="70" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="72" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" style="72" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="74" customWidth="1"/>
-    <col min="16" max="16" width="9" style="74" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="74" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" style="76" customWidth="1"/>
-    <col min="19" max="16384" width="16.21875" style="4"/>
+    <col min="6" max="7" width="5.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="3.88671875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7" style="70" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="70" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="72" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="74" customWidth="1"/>
+    <col min="17" max="17" width="9" style="74" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="74" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" style="76" customWidth="1"/>
+    <col min="20" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2135,46 +2184,49 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="L1" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="M1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="N1" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="O1" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="P1" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="Q1" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="R1" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="S1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -2194,16 +2246,16 @@
         <v>47</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>88</v>
@@ -2224,16 +2276,19 @@
         <v>88</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>102</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="77" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="77" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>25</v>
       </c>
@@ -2253,46 +2308,49 @@
         <v>28</v>
       </c>
       <c r="G3" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="I3" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="J3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="K3" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="L3" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="M3" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="N3" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="O3" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="77" t="s">
+      <c r="P3" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="77" t="s">
+      <c r="Q3" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="77" t="s">
+      <c r="R3" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="R3" s="77" t="s">
+      <c r="S3" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="T3" s="77" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
         <v>103</v>
       </c>
@@ -2311,67 +2369,70 @@
       <c r="F4" s="79">
         <v>0</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="79">
+        <v>1</v>
+      </c>
+      <c r="H4" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="I4" s="79" t="s">
         <v>52</v>
-      </c>
-      <c r="I4" s="79">
-        <v>100</v>
       </c>
       <c r="J4" s="79">
         <v>100</v>
       </c>
-      <c r="K4" s="81">
-        <v>10</v>
+      <c r="K4" s="79">
+        <v>100</v>
       </c>
       <c r="L4" s="81">
-        <v>10</v>
-      </c>
-      <c r="M4" s="82">
-        <v>0.9</v>
+        <v>50</v>
+      </c>
+      <c r="M4" s="81">
+        <v>50</v>
       </c>
       <c r="N4" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="O4" s="83">
-        <v>50</v>
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="82">
+        <v>0.8</v>
       </c>
       <c r="P4" s="83">
         <v>50</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="83">
+        <v>50</v>
+      </c>
+      <c r="R4" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="S4" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="T4" s="79" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>30002</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>30003</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>30004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>30005</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>30006</v>
       </c>
@@ -2379,37 +2440,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>30007</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>30008</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>30009</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>30010</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>30011</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>30012</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>30013</v>
       </c>

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D489261A-C15F-443F-BEE8-A590916B88DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED46218-A0FF-472B-99CA-8ED1EDFAE902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="2856" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColdWeaponData" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -516,6 +516,14 @@
   </si>
   <si>
     <t>flaot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器输出窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAttackCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1505,11 +1513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991DBC-989A-4537-A558-911F7EAAFE0A}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1521,12 +1529,12 @@
     <col min="5" max="6" width="16.21875" style="4"/>
     <col min="7" max="7" width="7.5546875" style="4" customWidth="1"/>
     <col min="8" max="9" width="29.88671875" style="4" customWidth="1"/>
-    <col min="10" max="18" width="12.5546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="16.21875" style="12"/>
-    <col min="20" max="16384" width="16.21875" style="4"/>
+    <col min="10" max="19" width="12.5546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16.21875" style="12"/>
+    <col min="21" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,11 +1589,14 @@
       <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -1640,11 +1651,14 @@
       <c r="R2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1682,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="4">
         <v>1</v>
@@ -1699,12 +1713,15 @@
       <c r="R3" s="4">
         <v>10</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="4">
+        <v>5</v>
+      </c>
+      <c r="T3" s="12">
         <f>J3/M3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1742,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -1759,27 +1776,30 @@
       <c r="R4" s="4">
         <v>30</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="4">
+        <v>3</v>
+      </c>
+      <c r="T4" s="12">
         <f>J4/M4</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>10003</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>10004</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>10005</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>10006</v>
       </c>
@@ -1787,42 +1807,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>10007</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>10008</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>10009</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>10010</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>10011</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10012</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>10013</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>10014</v>
       </c>
@@ -2136,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F38427-84D0-419A-A5AE-FCDD1DFD5083}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\Assets\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED46218-A0FF-472B-99CA-8ED1EDFAE902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21747D3-8DED-443C-9784-452CD07A1859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="2856" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColdWeaponData" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -524,6 +524,17 @@
   </si>
   <si>
     <t>MaxAttackCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WolfDefaultWeapon</t>
+  </si>
+  <si>
+    <t>生物狼的武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1515,9 +1526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991DBC-989A-4537-A558-911F7EAAFE0A}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1785,8 +1796,65 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="B5" s="4">
         <v>10003</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,6 +1928,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21747D3-8DED-443C-9784-452CD07A1859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680825C-0186-41E8-891B-E62CB20EC276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColdWeaponData" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="138">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -535,6 +535,32 @@
   </si>
   <si>
     <t>Animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBurnTime</t>
+  </si>
+  <si>
+    <t>燃烧时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxTemptrue</t>
+  </si>
+  <si>
+    <t>最高温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火把</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带来光明和温暖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1526,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991DBC-989A-4537-A558-911F7EAAFE0A}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
@@ -1934,11 +1960,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7A0F4-E31D-4926-81F2-2CBD1758CCB6}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1976,7 @@
     <col min="10" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1981,8 +2007,14 @@
       <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -2013,8 +2045,14 @@
       <c r="J2" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -2045,8 +2083,14 @@
       <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>119</v>
       </c>
@@ -2077,8 +2121,14 @@
       <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
@@ -2109,8 +2159,14 @@
       <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>115</v>
       </c>
@@ -2141,18 +2197,57 @@
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="B7" s="4">
         <v>20004</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="68">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4">
+        <v>300</v>
+      </c>
+      <c r="K7" s="4">
+        <v>300</v>
+      </c>
+      <c r="L7" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>20005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>20006</v>
       </c>
@@ -2160,37 +2255,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>20007</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>20008</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>20009</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>20010</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>20011</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>20012</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>20013</v>
       </c>

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680825C-0186-41E8-891B-E62CB20EC276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1105DD-61DC-41EE-8E6E-C0679884C811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Tree_Data" sheetId="9" r:id="rId3"/>
     <sheet name="枚举限制" sheetId="4" r:id="rId4"/>
     <sheet name="伤害计算表" sheetId="7" r:id="rId5"/>
+    <sheet name="Recipe" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,62 +39,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="160">
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CanBePickedUp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IronSword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Durability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ItemSpecialData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Item_TypeTag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Item_Material</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Weapon,Sword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Iron</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ArmorBreaking</t>
@@ -103,7 +104,7 @@
   </si>
   <si>
     <t>PhysicalDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MinDamageInterval</t>
@@ -125,239 +126,239 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>识别码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>耐久</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>特殊数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否可被拾取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>物品标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器材质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>物理攻击伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>破甲能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>魔法伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最小攻击间隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最大攻击距离</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>攻击速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器返回速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器自旋转速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>攻击状态下的精力消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 物品材质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
     <t>物品特殊代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>只是一个木棍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stirng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>List&lt;string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sword</t>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Materia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Wood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StoneAxe</t>
   </si>
   <si>
     <t>由石头制作而成的斧子,不锋利但好在能用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Weapon,Axe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Stone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DPS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每秒期望伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>物理攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护甲穿透</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最终伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护甲强度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护甲韧性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>,+5.5防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5.5防御  =  5点攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0.3护甲穿透</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10点防御 = 0.3护甲穿透</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>需要整整0.6的护甲韧性才能防住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无甲人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>钢剑</t>
   </si>
   <si>
     <t>铁甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>铁剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>钢甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>树</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>石斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>输出速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>所需时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>铁斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WorldEdge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Op</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>世界的边界,你是怎么拿到它的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
@@ -367,23 +368,23 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最大血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当前血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DefenseStrength</t>
@@ -405,175 +406,269 @@
   </si>
   <si>
     <t>最大防御强度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防御强度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最大防御韧性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防御韧性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最大魔法抗性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>魔法抗性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>List&lt;string,int&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AppleTree</t>
   </si>
   <si>
     <t>一颗不那么正常的苹果树</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Weaknesses</t>
   </si>
   <si>
     <t>弱点伤害列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>斧伤,火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Loots_Death</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Loots_Production</t>
   </si>
   <si>
     <t>生产掉落物列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>死亡掉落物列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用途非常广泛的材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Material</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Log*4,Apple_Red*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>木棍</t>
   </si>
   <si>
     <t>木棍*1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Volume</t>
   </si>
   <si>
     <t>物品体积</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Volume</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>flaot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>武器输出窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MaxAttackCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WolfDefaultWeapon</t>
   </si>
   <si>
     <t>生物狼的武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Animal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MaxBurnTime</t>
   </si>
   <si>
-    <t>燃烧时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxTemptrue</t>
   </si>
   <si>
     <t>最高温度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>火把</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>带来光明和温暖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木棍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角物品名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成输出的物品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种古老的燃料，由数百万年前的植物沉积压缩而成。黑色、坚硬，散发着微弱的油光。</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>单位燃烧时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -657,7 +752,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,8 +819,50 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1074,166 +1211,290 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="13" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="13" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="10" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="10" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="12" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="12" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="11" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="11" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1242,23 +1503,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="25" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="19" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="28" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="27" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="28" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="27" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="28" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="27" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="28" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="27" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="28" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="30" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="30" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="32" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="30" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="32" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="30" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="32" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="30" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="32" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="30" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="32" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="33" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="24" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="24" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="26" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="24" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="26" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="24" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="26" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="24" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="26" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="34" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="25" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="21">
+    <cellStyle name="20% - 着色 1" xfId="14" builtinId="30"/>
+    <cellStyle name="20% - 着色 2" xfId="16" builtinId="34"/>
+    <cellStyle name="20% - 着色 3" xfId="17" builtinId="38"/>
+    <cellStyle name="20% - 着色 4" xfId="18" builtinId="42"/>
+    <cellStyle name="20% - 着色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="20" builtinId="50"/>
+    <cellStyle name="40% - 着色 1" xfId="15" builtinId="31"/>
     <cellStyle name="40% - 着色 3" xfId="11" builtinId="39"/>
     <cellStyle name="40% - 着色 4" xfId="12" builtinId="43"/>
     <cellStyle name="40% - 着色 5" xfId="10" builtinId="47"/>
@@ -1952,7 +2367,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1964,13 +2379,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.21875" style="4"/>
-    <col min="3" max="4" width="16.21875" style="68"/>
+    <col min="3" max="3" width="108.33203125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="68"/>
     <col min="5" max="7" width="16.21875" style="4"/>
     <col min="8" max="9" width="27.6640625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="16.21875" style="4"/>
@@ -2011,7 +2427,7 @@
         <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2084,10 +2500,10 @@
         <v>42</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2206,13 +2622,13 @@
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4">
         <v>20004</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="68">
         <v>1</v>
@@ -2227,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>52</v>
@@ -2243,8 +2659,41 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="B8" s="4">
         <v>20005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="68">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="4">
+        <v>600</v>
+      </c>
+      <c r="K8" s="4">
+        <v>600</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,7 +2760,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2321,8 +2770,8 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2686,7 +3135,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2741,7 +3190,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3624,7 +4073,173 @@
       <c r="L26" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05AC1D6-0EA3-4523-A7E5-E9DFE53359FC}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" style="4"/>
+    <col min="2" max="2" width="12.109375" style="86"/>
+    <col min="3" max="3" width="12.109375" style="87"/>
+    <col min="4" max="4" width="12.109375" style="88"/>
+    <col min="5" max="5" width="12.109375" style="89"/>
+    <col min="6" max="6" width="12.109375" style="90"/>
+    <col min="7" max="7" width="12.109375" style="91"/>
+    <col min="8" max="8" width="12.109375" style="92"/>
+    <col min="9" max="9" width="12.109375" style="93"/>
+    <col min="10" max="10" width="12.109375" style="94"/>
+    <col min="11" max="11" width="12.109375" style="95"/>
+    <col min="12" max="12" width="12.109375" style="96"/>
+    <col min="13" max="13" width="12.109375" style="97"/>
+    <col min="14" max="14" width="12.109375" style="98"/>
+    <col min="15" max="15" width="12.109375" style="99"/>
+    <col min="16" max="16" width="12.109375" style="88"/>
+    <col min="17" max="17" width="12.109375" style="89"/>
+    <col min="18" max="18" width="12.109375" style="90"/>
+    <col min="19" max="19" width="12.109375" style="91"/>
+    <col min="20" max="21" width="12.109375" style="85"/>
+    <col min="22" max="16384" width="12.109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="116" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101">
+        <v>7</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="103">
+        <v>8</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="105">
+        <v>9</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="107">
+        <v>4</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="109">
+        <v>5</v>
+      </c>
+      <c r="K2" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="111">
+        <v>6</v>
+      </c>
+      <c r="M2" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" s="113">
+        <v>1</v>
+      </c>
+      <c r="O2" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="103">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="R2" s="115">
+        <v>3</v>
+      </c>
+      <c r="S2" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="U2" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="W2" s="116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="120">
+        <v>1</v>
+      </c>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="126">
+        <v>1</v>
+      </c>
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="133">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1105DD-61DC-41EE-8E6E-C0679884C811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B53D95-C558-4EDD-BD74-A6FD6399328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColdWeaponData" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="163">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -648,6 +648,18 @@
   </si>
   <si>
     <t>单位燃烧时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石镐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗糙的采矿工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool,Weapon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1967,9 +1979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991DBC-989A-4537-A558-911F7EAAFE0A}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2299,8 +2311,65 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="B6" s="4">
         <v>10004</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="4">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>200</v>
+      </c>
+      <c r="R6" s="4">
+        <v>20</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7A0F4-E31D-4926-81F2-2CBD1758CCB6}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B53D95-C558-4EDD-BD74-A6FD6399328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C4298-AC0F-4C4B-8AA9-2E2C33D54A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,7 @@
     <sheet name="ColdWeaponData" sheetId="3" r:id="rId1"/>
     <sheet name="Com_ItemData" sheetId="6" r:id="rId2"/>
     <sheet name="Tree_Data" sheetId="9" r:id="rId3"/>
-    <sheet name="枚举限制" sheetId="4" r:id="rId4"/>
-    <sheet name="伤害计算表" sheetId="7" r:id="rId5"/>
-    <sheet name="Recipe" sheetId="10" r:id="rId6"/>
+    <sheet name="Recipe" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -228,9 +226,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Sword</t>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -266,89 +261,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>物理攻击力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲穿透</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲强度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲韧性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>,+5.5防御</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5防御  =  5点攻击力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3护甲穿透</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10点防御 = 0.3护甲穿透</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要整整0.6的护甲韧性才能防住</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无甲人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢剑</t>
-  </si>
-  <si>
-    <t>铁甲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁剑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢甲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>树</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石斧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁斧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WorldEdge</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -448,14 +360,6 @@
   </si>
   <si>
     <t>Plant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -764,7 +668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,17 +698,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -874,7 +767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -932,271 +825,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1327,7 +955,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1350,7 +978,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,10 +990,10 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1383,14 +1011,8 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1410,8 +1032,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1424,68 +1044,19 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="9" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="11" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
@@ -1494,203 +1065,196 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="12" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="9" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="17" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="11" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="25" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="19" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="28" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="27" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="28" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="27" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="28" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="27" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="28" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="27" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="28" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="30" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="30" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="32" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="30" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="32" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="30" xfId="18" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="32" xfId="18" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="30" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="32" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="11" xfId="18" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="30" xfId="20" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="18" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="32" xfId="20" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="30" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="33" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="24" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="24" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="26" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="24" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="26" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="24" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="26" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="24" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="26" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="34" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="25" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
-    <cellStyle name="20% - 着色 1" xfId="14" builtinId="30"/>
-    <cellStyle name="20% - 着色 2" xfId="16" builtinId="34"/>
-    <cellStyle name="20% - 着色 3" xfId="17" builtinId="38"/>
-    <cellStyle name="20% - 着色 4" xfId="18" builtinId="42"/>
-    <cellStyle name="20% - 着色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="20% - 着色 6" xfId="20" builtinId="50"/>
-    <cellStyle name="40% - 着色 1" xfId="15" builtinId="31"/>
-    <cellStyle name="40% - 着色 3" xfId="11" builtinId="39"/>
-    <cellStyle name="40% - 着色 4" xfId="12" builtinId="43"/>
-    <cellStyle name="40% - 着色 5" xfId="10" builtinId="47"/>
-    <cellStyle name="60% - 着色 4" xfId="9" builtinId="44"/>
-    <cellStyle name="60% - 着色 6" xfId="13" builtinId="52"/>
+  <cellStyles count="19">
+    <cellStyle name="20% - 着色 1" xfId="12" builtinId="30"/>
+    <cellStyle name="20% - 着色 2" xfId="14" builtinId="34"/>
+    <cellStyle name="20% - 着色 3" xfId="15" builtinId="38"/>
+    <cellStyle name="20% - 着色 4" xfId="16" builtinId="42"/>
+    <cellStyle name="20% - 着色 5" xfId="17" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="18" builtinId="50"/>
+    <cellStyle name="40% - 着色 1" xfId="13" builtinId="31"/>
+    <cellStyle name="40% - 着色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="40% - 着色 4" xfId="10" builtinId="43"/>
+    <cellStyle name="40% - 着色 5" xfId="8" builtinId="47"/>
+    <cellStyle name="60% - 着色 6" xfId="11" builtinId="52"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="3" builtinId="26"/>
@@ -1699,7 +1263,6 @@
     <cellStyle name="链接单元格" xfId="4" builtinId="24"/>
     <cellStyle name="适中" xfId="7" builtinId="28"/>
     <cellStyle name="着色 1" xfId="6" builtinId="29"/>
-    <cellStyle name="着色 3" xfId="8" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1981,7 +1544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1557,7 @@
     <col min="7" max="7" width="7.5546875" style="4" customWidth="1"/>
     <col min="8" max="9" width="29.88671875" style="4" customWidth="1"/>
     <col min="10" max="19" width="12.5546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="16.21875" style="12"/>
+    <col min="20" max="20" width="16.21875" style="10"/>
     <col min="21" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
@@ -2015,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -2054,72 +1617,72 @@
         <v>22</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2180,20 +1743,20 @@
       <c r="S3" s="4">
         <v>5</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="10">
         <f>J3/M3</f>
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4">
         <v>10002</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
@@ -2208,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="J4" s="4">
         <v>15</v>
@@ -2243,20 +1806,20 @@
       <c r="S4" s="4">
         <v>3</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="10">
         <f>J4/M4</f>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B5" s="4">
         <v>10003</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4">
         <v>-1</v>
@@ -2271,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="J5" s="4">
         <v>10</v>
@@ -2306,19 +1869,19 @@
       <c r="S5" s="4">
         <v>1</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B6" s="4">
         <v>10004</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D6" s="4">
         <v>80</v>
@@ -2333,10 +1896,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="4">
         <v>10</v>
@@ -2368,7 +1931,7 @@
       <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="10">
         <v>10</v>
       </c>
     </row>
@@ -2448,14 +2011,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.21875" style="4"/>
-    <col min="3" max="3" width="108.33203125" style="68" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="68"/>
+    <col min="3" max="3" width="108.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="11"/>
     <col min="5" max="7" width="16.21875" style="4"/>
     <col min="8" max="9" width="27.6640625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="16.21875" style="4"/>
@@ -2469,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2493,10 +2056,10 @@
         <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2073,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
@@ -2531,10 +2094,10 @@
         <v>46</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2548,7 +2111,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>26</v>
@@ -2569,23 +2132,23 @@
         <v>42</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B4" s="4">
         <v>20001</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="4">
@@ -2598,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>11</v>
@@ -2615,15 +2178,15 @@
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4">
         <v>20002</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="68">
+      <c r="C5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11">
         <v>1</v>
       </c>
       <c r="E5" s="4">
@@ -2636,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>11</v>
@@ -2653,15 +2216,15 @@
     </row>
     <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4">
         <v>20003</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="68">
+      <c r="C6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11">
         <v>1</v>
       </c>
       <c r="E6" s="4">
@@ -2674,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>11</v>
@@ -2691,15 +2254,15 @@
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4">
         <v>20004</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="68">
+      <c r="C7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="E7" s="4">
@@ -2712,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="4">
         <v>300</v>
@@ -2729,15 +2292,15 @@
     </row>
     <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4">
         <v>20005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="68">
+        <v>133</v>
+      </c>
+      <c r="D8" s="11">
         <v>1</v>
       </c>
       <c r="E8" s="4">
@@ -2750,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="J8" s="4">
         <v>600</v>
@@ -2840,14 +2403,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="68"/>
+    <col min="3" max="3" width="16.21875" style="11"/>
     <col min="4" max="4" width="4.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="3.5546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="5.6640625" style="4" customWidth="1"/>
@@ -2855,14 +2418,14 @@
     <col min="9" max="9" width="14.5546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="3.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7" style="70" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="70" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="72" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="72" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="74" customWidth="1"/>
-    <col min="17" max="17" width="9" style="74" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="74" customWidth="1"/>
-    <col min="19" max="19" width="25.6640625" style="76" customWidth="1"/>
+    <col min="12" max="12" width="7" style="13" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="17" customWidth="1"/>
+    <col min="17" max="17" width="9" style="17" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="17" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" style="19" customWidth="1"/>
     <col min="20" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
@@ -2874,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -2886,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -2895,37 +2458,37 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="75" t="s">
-        <v>111</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2948,7 +2511,7 @@
         <v>47</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>48</v>
@@ -2957,161 +2520,161 @@
         <v>48</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="77" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+    <row r="3" spans="1:20" s="20" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="77" t="s">
+      <c r="G3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="22" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="22">
+        <v>30001</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="22">
+        <v>100</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="22">
+        <v>100</v>
+      </c>
+      <c r="K4" s="22">
+        <v>100</v>
+      </c>
+      <c r="L4" s="24">
+        <v>50</v>
+      </c>
+      <c r="M4" s="24">
+        <v>50</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="P4" s="26">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>50</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="S3" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="79">
-        <v>30001</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="79">
-        <v>100</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="79">
-        <v>0</v>
-      </c>
-      <c r="G4" s="79">
-        <v>1</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="79">
-        <v>100</v>
-      </c>
-      <c r="K4" s="79">
-        <v>100</v>
-      </c>
-      <c r="L4" s="81">
-        <v>50</v>
-      </c>
-      <c r="M4" s="81">
-        <v>50</v>
-      </c>
-      <c r="N4" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="O4" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="P4" s="83">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="83">
-        <v>50</v>
-      </c>
-      <c r="R4" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="T4" s="79" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -3210,1099 +2773,161 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009798B-2D77-4816-8FCE-38CBA24798A1}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E334AF-59B6-4F6A-B463-834ABE499C6A}">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <f>C2-(G2-((D2*C2)*(1-H2)))</f>
-        <v>6.6</v>
-      </c>
-      <c r="B2" s="14">
-        <f t="shared" ref="B2:B12" si="0">_xlfn.CEILING.MATH(I2/A2)</f>
-        <v>16</v>
-      </c>
-      <c r="C2" s="14">
-        <v>10</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="25">
-        <v>5</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="I2" s="15">
-        <v>100</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <f t="shared" ref="A3:A6" si="1">C3-(G3-((D3*C3)*(1-H3)))</f>
-        <v>12.4</v>
-      </c>
-      <c r="B3" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C3" s="14">
-        <v>15</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="25">
-        <v>5</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="15">
-        <v>100</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <f t="shared" si="1"/>
-        <v>7.4</v>
-      </c>
-      <c r="B4" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C4" s="14">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="25">
-        <v>10</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="15">
-        <v>100</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B5" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="25">
-        <v>5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="15">
-        <v>100</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B6" s="14">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C6" s="14">
-        <v>15</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="25">
-        <v>15</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="15">
-        <v>100</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="26"/>
-      <c r="M6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <f t="shared" ref="A7" si="2">C7-(G7-((D7*C7)*(1-H7)))</f>
-        <v>6.5</v>
-      </c>
-      <c r="B7" s="14">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C7" s="14">
-        <v>15</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="25">
-        <v>10</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="15">
-        <v>100</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="26"/>
-      <c r="M7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f t="shared" ref="A8" si="3">C8-(G8-((D8*C8)*(1-H8)))</f>
-        <v>12</v>
-      </c>
-      <c r="B8" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>100</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <f t="shared" ref="A9" si="4">C9-(G9-((D9*C9)*(1-H9)))</f>
-        <v>17.5</v>
-      </c>
-      <c r="B9" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="7">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>10</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="7">
-        <v>100</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f>C10-(G10-((D10*C10)*(1-H10)))</f>
-        <v>5.5</v>
-      </c>
-      <c r="B10" s="14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>100</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
-        <f>C11-(G11-((D11*C11)*(1-H11)))</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C11" s="30">
-        <v>10</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32">
-        <v>1</v>
-      </c>
-      <c r="H11" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="33">
-        <v>100</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <f>C12-(G12-((D12*C12)*(1-H12)))</f>
-        <v>15.35</v>
-      </c>
-      <c r="B12" s="36">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="36">
-        <v>15</v>
-      </c>
-      <c r="D12" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="57">
-        <v>1</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="35">
-        <v>1</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="36">
-        <v>100</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <f t="shared" ref="A13" si="5">C13-(G13-((D13*C13)*(1-H13)))</f>
-        <v>8.35</v>
-      </c>
-      <c r="B13" s="39">
-        <f t="shared" ref="B13" si="6">_xlfn.CEILING.MATH(I13/A13)</f>
-        <v>12</v>
-      </c>
-      <c r="C13" s="39">
-        <v>15</v>
-      </c>
-      <c r="D13" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="58">
-        <v>1</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="38">
-        <v>8</v>
-      </c>
-      <c r="H13" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="39">
-        <v>100</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
-        <f t="shared" ref="A14" si="7">C14-(G14-((D14*C14)*(1-H14)))</f>
-        <v>6.35</v>
-      </c>
-      <c r="B14" s="42">
-        <f t="shared" ref="B14" si="8">_xlfn.CEILING.MATH(I14/A14)</f>
-        <v>16</v>
-      </c>
-      <c r="C14" s="42">
-        <v>15</v>
-      </c>
-      <c r="D14" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="59">
-        <v>1</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="41">
-        <v>10</v>
-      </c>
-      <c r="H14" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="42">
-        <v>100</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
-        <f t="shared" ref="A15" si="9">C15-(G15-((D15*C15)*(1-H15)))</f>
-        <v>5.15</v>
-      </c>
-      <c r="B15" s="42">
-        <f t="shared" ref="B15" si="10">_xlfn.CEILING.MATH(I15/A15)</f>
-        <v>20</v>
-      </c>
-      <c r="C15" s="42">
-        <v>15</v>
-      </c>
-      <c r="D15" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="59">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="7">
-        <v>10</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I15" s="7">
-        <v>100</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50">
-        <f>C16-(G16-((D16*C16)*(1-H16)))</f>
-        <v>22.6</v>
-      </c>
-      <c r="B16" s="51">
-        <f t="shared" ref="B16" si="11">_xlfn.CEILING.MATH(I16/A16)</f>
-        <v>5</v>
-      </c>
-      <c r="C16" s="51">
-        <v>20</v>
-      </c>
-      <c r="D16" s="51">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="60">
-        <v>1</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="50">
-        <v>1</v>
-      </c>
-      <c r="H16" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="51">
-        <v>100</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
-        <f t="shared" ref="A17" si="12">C17-(G17-((D17*C17)*(1-H17)))</f>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="B17" s="48">
-        <f t="shared" ref="B17" si="13">_xlfn.CEILING.MATH(I17/A17)</f>
-        <v>7</v>
-      </c>
-      <c r="C17" s="48">
-        <v>20</v>
-      </c>
-      <c r="D17" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="61">
-        <v>1</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="47">
-        <v>7</v>
-      </c>
-      <c r="H17" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="48">
-        <v>100</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
-        <f t="shared" ref="A18" si="14">C18-(G18-((D18*C18)*(1-H18)))</f>
-        <v>11.6</v>
-      </c>
-      <c r="B18" s="45">
-        <f t="shared" ref="B18" si="15">_xlfn.CEILING.MATH(I18/A18)</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="45">
-        <v>20</v>
-      </c>
-      <c r="D18" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="62">
-        <v>1</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="44">
-        <v>10</v>
-      </c>
-      <c r="H18" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="45">
-        <v>100</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
-        <f t="shared" ref="A19" si="16">C19-(G19-((D19*C19)*(1-H19)))</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B19" s="45">
-        <f>_xlfn.CEILING.MATH(I19/A19)</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="45">
-        <v>20</v>
-      </c>
-      <c r="D19" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="62">
-        <v>1</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7">
-        <v>10</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>100</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63">
-        <f>C20-(G20-((D20*C20)*(1-H20)))</f>
-        <v>16.7</v>
-      </c>
-      <c r="B20" s="64">
-        <f>_xlfn.CEILING.MATH(I20/A20*2)</f>
-        <v>12</v>
-      </c>
-      <c r="C20" s="65">
-        <v>15</v>
-      </c>
-      <c r="D20" s="65">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="66">
-        <v>2</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="50">
-        <v>1</v>
-      </c>
-      <c r="H20" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="51">
-        <v>100</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63">
-        <f>C21-(G21-((D21*C21)*(1-H21)))</f>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="B21" s="64">
-        <f>_xlfn.CEILING.MATH(I21/A21*2)</f>
-        <v>21</v>
-      </c>
-      <c r="C21" s="65">
-        <v>15</v>
-      </c>
-      <c r="D21" s="65">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="66">
-        <v>2</v>
-      </c>
-      <c r="F21" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="38">
-        <v>8</v>
-      </c>
-      <c r="H21" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="39">
-        <v>100</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63">
-        <f>C22-(G22-((D22*C22)*(1-H22)))</f>
-        <v>7.4</v>
-      </c>
-      <c r="B22" s="64">
-        <f>_xlfn.CEILING.MATH(I22/A22*2)</f>
-        <v>28</v>
-      </c>
-      <c r="C22" s="65">
-        <v>15</v>
-      </c>
-      <c r="D22" s="65">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="66">
-        <v>2</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="44">
-        <v>10</v>
-      </c>
-      <c r="H22" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="I22" s="45">
-        <v>100</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
-        <f>C23-(G23-((D23*C23)*(1-H23)))</f>
-        <v>22.6</v>
-      </c>
-      <c r="B23" s="64">
-        <f t="shared" ref="B23:B25" si="17">_xlfn.CEILING.MATH(I23/A23*2)</f>
-        <v>9</v>
-      </c>
-      <c r="C23" s="14">
-        <v>20</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="55">
-        <v>2</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="50">
-        <v>1</v>
-      </c>
-      <c r="H23" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="51">
-        <v>100</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
-        <f t="shared" ref="A24:A25" si="18">C24-(G24-((D24*C24)*(1-H24)))</f>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="B24" s="64">
-        <f t="shared" si="17"/>
-        <v>13</v>
-      </c>
-      <c r="C24" s="14">
-        <v>20</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="55">
-        <v>2</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="47">
-        <v>7</v>
-      </c>
-      <c r="H24" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="48">
-        <v>100</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
-        <f t="shared" si="18"/>
-        <v>13.2</v>
-      </c>
-      <c r="B25" s="64">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="14">
-        <v>20</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E25" s="55">
-        <v>2</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="44">
-        <v>10</v>
-      </c>
-      <c r="H25" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="I25" s="45">
-        <v>100</v>
-      </c>
-      <c r="J25" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05AC1D6-0EA3-4523-A7E5-E9DFE53359FC}">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="4"/>
-    <col min="2" max="2" width="12.109375" style="86"/>
-    <col min="3" max="3" width="12.109375" style="87"/>
-    <col min="4" max="4" width="12.109375" style="88"/>
-    <col min="5" max="5" width="12.109375" style="89"/>
-    <col min="6" max="6" width="12.109375" style="90"/>
-    <col min="7" max="7" width="12.109375" style="91"/>
-    <col min="8" max="8" width="12.109375" style="92"/>
-    <col min="9" max="9" width="12.109375" style="93"/>
-    <col min="10" max="10" width="12.109375" style="94"/>
-    <col min="11" max="11" width="12.109375" style="95"/>
-    <col min="12" max="12" width="12.109375" style="96"/>
-    <col min="13" max="13" width="12.109375" style="97"/>
-    <col min="14" max="14" width="12.109375" style="98"/>
-    <col min="15" max="15" width="12.109375" style="99"/>
-    <col min="16" max="16" width="12.109375" style="88"/>
-    <col min="17" max="17" width="12.109375" style="89"/>
-    <col min="18" max="18" width="12.109375" style="90"/>
-    <col min="19" max="19" width="12.109375" style="91"/>
-    <col min="20" max="21" width="12.109375" style="85"/>
+    <col min="2" max="2" width="12.109375" style="29"/>
+    <col min="3" max="3" width="12.109375" style="30"/>
+    <col min="4" max="4" width="12.109375" style="31"/>
+    <col min="5" max="5" width="12.109375" style="32"/>
+    <col min="6" max="6" width="12.109375" style="33"/>
+    <col min="7" max="7" width="12.109375" style="34"/>
+    <col min="8" max="8" width="12.109375" style="35"/>
+    <col min="9" max="9" width="12.109375" style="36"/>
+    <col min="10" max="10" width="12.109375" style="37"/>
+    <col min="11" max="11" width="12.109375" style="38"/>
+    <col min="12" max="12" width="12.109375" style="39"/>
+    <col min="13" max="13" width="12.109375" style="40"/>
+    <col min="14" max="14" width="12.109375" style="41"/>
+    <col min="15" max="15" width="12.109375" style="42"/>
+    <col min="16" max="16" width="12.109375" style="31"/>
+    <col min="17" max="17" width="12.109375" style="32"/>
+    <col min="18" max="18" width="12.109375" style="33"/>
+    <col min="19" max="19" width="12.109375" style="34"/>
+    <col min="20" max="21" width="12.109375" style="28"/>
     <col min="22" max="16384" width="12.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="U1" s="85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="116" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="59" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101">
+      <c r="B2" s="44">
         <v>7</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="103">
+      <c r="C2" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="46">
         <v>8</v>
       </c>
-      <c r="E2" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="105">
+      <c r="E2" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="48">
         <v>9</v>
       </c>
-      <c r="G2" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="107">
+      <c r="G2" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="50">
         <v>4</v>
       </c>
-      <c r="I2" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="109">
+      <c r="I2" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="52">
         <v>5</v>
       </c>
-      <c r="K2" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="111">
+      <c r="K2" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="54">
         <v>6</v>
       </c>
-      <c r="M2" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="N2" s="113">
-        <v>1</v>
-      </c>
-      <c r="O2" s="114" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="103">
+      <c r="M2" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="56">
+        <v>1</v>
+      </c>
+      <c r="O2" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="46">
         <v>2</v>
       </c>
-      <c r="Q2" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="R2" s="115">
+      <c r="Q2" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="58">
         <v>3</v>
       </c>
-      <c r="S2" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="T2" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="U2" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="V2" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="W2" s="116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="120">
-        <v>1</v>
-      </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="126">
-        <v>1</v>
-      </c>
-      <c r="L3" s="127"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="U3" s="133">
+      <c r="S2" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="22" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="63">
+        <v>1</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="69">
+        <v>1</v>
+      </c>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" s="76">
         <v>1</v>
       </c>
     </row>

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C4298-AC0F-4C4B-8AA9-2E2C33D54A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE57EDE-5105-46C4-B8E4-9C608A41F974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ColdWeaponData" sheetId="3" r:id="rId1"/>
-    <sheet name="Com_ItemData" sheetId="6" r:id="rId2"/>
-    <sheet name="Tree_Data" sheetId="9" r:id="rId3"/>
-    <sheet name="Recipe" sheetId="10" r:id="rId4"/>
+    <sheet name="Data_ColdWeapon" sheetId="3" r:id="rId1"/>
+    <sheet name="Data_Food" sheetId="12" r:id="rId2"/>
+    <sheet name="Data_Building" sheetId="15" r:id="rId3"/>
+    <sheet name="Data_Worker" sheetId="14" r:id="rId4"/>
+    <sheet name="Data_GeneralItem" sheetId="6" r:id="rId5"/>
+    <sheet name="Data_Creature" sheetId="9" r:id="rId6"/>
+    <sheet name="Recipe" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="178">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -238,332 +241,481 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>由石头制作而成的斧子,不锋利但好在能用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon,Axe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒期望伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldEdge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Op</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界的边界,你是怎么拿到它的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenseStrength</t>
+  </si>
+  <si>
+    <t>DefenseToughness</t>
+  </si>
+  <si>
+    <t>MaxDefenseStrength</t>
+  </si>
+  <si>
+    <t>MaxDefenseToughness</t>
+  </si>
+  <si>
+    <t>MaxDefenseMagic</t>
+  </si>
+  <si>
+    <t>DefenseMagic</t>
+  </si>
+  <si>
+    <t>最大防御强度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御强度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大防御韧性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御韧性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大魔法抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string,int&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一颗不那么正常的苹果树</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weaknesses</t>
+  </si>
+  <si>
+    <t>弱点伤害列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧伤,火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loots_Death</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loots_Production</t>
+  </si>
+  <si>
+    <t>生产掉落物列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡掉落物列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途非常广泛的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log*4,Apple_Red*2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木棍</t>
+  </si>
+  <si>
+    <t>木棍*1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>物品体积</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器输出窗口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAttackCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物狼的武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBurnTime</t>
+  </si>
+  <si>
+    <t>MaxTemptrue</t>
+  </si>
+  <si>
+    <t>最高温度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火把</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带来光明和温暖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木棍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角物品名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成输出的物品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种古老的燃料，由数百万年前的植物沉积压缩而成。黑色、坚硬，散发着微弱的油光。</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>单位燃烧时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石镐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗糙的采矿工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool,Weapon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDName</t>
+  </si>
+  <si>
+    <t>IDName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别码名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内的名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree_Apple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple_Red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是一个苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果树</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果 会长大成苹果树</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food,Plant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxFood</t>
+  </si>
+  <si>
+    <t>MaxWater</t>
+  </si>
+  <si>
+    <t>flaot</t>
+  </si>
+  <si>
+    <t>最大营养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大水分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁剑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼的默认武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WolfDefaultWeapon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickaxe </t>
+  </si>
+  <si>
+    <t>石斧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrassLand</t>
+  </si>
+  <si>
+    <t>世界边界</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌木丛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒得写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台</t>
+  </si>
+  <si>
+    <t>游戏内显示名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于合成物品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>workstation</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>StoneAxe</t>
-  </si>
-  <si>
-    <t>由石头制作而成的斧子,不锋利但好在能用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon,Axe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒期望伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldEdge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Op</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界的边界,你是怎么拿到它的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大血量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前血量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefenseStrength</t>
-  </si>
-  <si>
-    <t>DefenseToughness</t>
-  </si>
-  <si>
-    <t>MaxDefenseStrength</t>
-  </si>
-  <si>
-    <t>MaxDefenseToughness</t>
-  </si>
-  <si>
-    <t>MaxDefenseMagic</t>
-  </si>
-  <si>
-    <t>DefenseMagic</t>
-  </si>
-  <si>
-    <t>最大防御强度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御强度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大防御韧性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御韧性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大魔法抗性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法抗性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;string,int&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppleTree</t>
-  </si>
-  <si>
-    <t>一颗不那么正常的苹果树</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weaknesses</t>
-  </si>
-  <si>
-    <t>弱点伤害列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧伤,火</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loots_Death</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loots_Production</t>
-  </si>
-  <si>
-    <t>生产掉落物列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡掉落物列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>木板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途非常广泛的材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log*4,Apple_Red*2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>木棍</t>
-  </si>
-  <si>
-    <t>木棍*1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>物品体积</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>flaot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器输出窗口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxAttackCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WolfDefaultWeapon</t>
-  </si>
-  <si>
-    <t>生物狼的武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Animal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxBurnTime</t>
-  </si>
-  <si>
-    <t>MaxTemptrue</t>
-  </si>
-  <si>
-    <t>最高温度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火把</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>带来光明和温暖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1a</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2a</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤炭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>木棍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>左上角物品名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成输出的物品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种古老的燃料，由数百万年前的植物沉积压缩而成。黑色、坚硬，散发着微弱的油光。</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>单位燃烧时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石镐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗糙的采矿工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool,Weapon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1540,323 +1692,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991DBC-989A-4537-A558-911F7EAAFE0A}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="16.21875" style="4"/>
-    <col min="7" max="7" width="7.5546875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="29.88671875" style="4" customWidth="1"/>
-    <col min="10" max="19" width="12.5546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="16.21875" style="10"/>
-    <col min="21" max="16384" width="16.21875" style="4"/>
+    <col min="1" max="1" width="11.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="16.21875" style="4"/>
+    <col min="8" max="8" width="7.5546875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="29.88671875" style="4" customWidth="1"/>
+    <col min="11" max="20" width="12.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" style="10"/>
+    <col min="22" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="G2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="4">
         <v>10001</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>200</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>10</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
       </c>
       <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.5</v>
       </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
       <c r="O3" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4">
         <v>10</v>
       </c>
       <c r="Q3" s="4">
+        <v>10</v>
+      </c>
+      <c r="R3" s="4">
         <v>360</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>10</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <v>5</v>
       </c>
-      <c r="T3" s="10">
-        <f>J3/M3</f>
+      <c r="U3" s="10">
+        <f>K3/N3</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10002</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="4">
-        <v>10002</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4">
-        <v>50</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>15</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4">
         <v>5</v>
       </c>
       <c r="Q4" s="4">
+        <v>5</v>
+      </c>
+      <c r="R4" s="4">
         <v>200</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>30</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <v>3</v>
       </c>
-      <c r="T4" s="10">
-        <f>J4/M4</f>
+      <c r="U4" s="10">
+        <f>K4/N4</f>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="4">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="4">
         <v>10003</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="4">
         <v>-1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="J5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="4">
         <v>10</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
         <v>0.5</v>
       </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
       <c r="P5" s="4">
         <v>1</v>
       </c>
@@ -1869,132 +2033,133 @@
       <c r="S5" s="4">
         <v>1</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="4">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4">
         <v>10004</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="4">
         <v>80</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>138</v>
+      <c r="H6" s="4">
+        <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="4">
+        <v>135</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="4">
         <v>10</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
       </c>
       <c r="O6" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4">
         <v>8</v>
       </c>
       <c r="Q6" s="4">
+        <v>8</v>
+      </c>
+      <c r="R6" s="4">
         <v>200</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>20</v>
       </c>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-      <c r="T6" s="10">
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+    <row r="8" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
         <v>10006</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+    <row r="9" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
         <v>10007</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+    <row r="10" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
         <v>10008</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+    <row r="11" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
         <v>10009</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+    <row r="12" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
         <v>10010</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+    <row r="13" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
         <v>10011</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+    <row r="14" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
         <v>10012</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+    <row r="15" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
         <v>10013</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+    <row r="16" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
         <v>10014</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+    <row r="17" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
         <v>10015</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+    <row r="18" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
         <v>10016</v>
       </c>
     </row>
@@ -2006,60 +2171,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7A0F4-E31D-4926-81F2-2CBD1758CCB6}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3B5F98-2E66-4221-89AD-72518FDC2A79}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.21875" style="4"/>
-    <col min="3" max="3" width="108.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="11"/>
-    <col min="5" max="7" width="16.21875" style="4"/>
-    <col min="8" max="9" width="27.6640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="16.21875" style="4"/>
+    <col min="1" max="1" width="10.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="4"/>
+    <col min="4" max="4" width="30.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="11"/>
+    <col min="6" max="8" width="16.21875" style="4"/>
+    <col min="9" max="10" width="27.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2067,328 +2233,178 @@
         <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="K3" s="5" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20001</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1000001</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
+      <c r="H4" s="4">
+        <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4">
         <v>11</v>
       </c>
-      <c r="K4" s="4">
-        <v>5</v>
-      </c>
       <c r="L4" s="4">
-        <v>600</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20002</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1000001</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>59</v>
+      <c r="H5" s="4">
+        <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="4">
         <v>11</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
       <c r="L5" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20003</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>600</v>
+      <c r="C6" s="4">
+        <v>1000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20004</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="4">
-        <v>300</v>
-      </c>
-      <c r="K7" s="4">
-        <v>300</v>
-      </c>
-      <c r="L7" s="4">
-        <v>600</v>
+      <c r="C7" s="4">
+        <v>1000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>50</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="4">
-        <v>600</v>
-      </c>
-      <c r="K8" s="4">
-        <v>600</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1000</v>
-      </c>
+      <c r="C8" s="4">
+        <v>1000001</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="J8"/>
     </row>
     <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>20006</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="4">
+        <v>1000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>20008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>20009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>20010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>20011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>20012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>20013</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>20014</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>20015</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>20016</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>20017</v>
+      <c r="C10" s="4">
+        <v>1000001</v>
       </c>
     </row>
   </sheetData>
@@ -2398,370 +2414,1301 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F38427-84D0-419A-A5AE-FCDD1DFD5083}">
-  <dimension ref="A1:T21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BDBF58-EC32-4A99-AEFE-968E47F24997}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="4"/>
+    <col min="3" max="3" width="16.21875" style="4"/>
+    <col min="4" max="4" width="34.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="11"/>
+    <col min="6" max="8" width="16.21875" style="4"/>
+    <col min="9" max="10" width="27.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="16.21875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>114514</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A6195F-3C8B-46B4-B3D8-B21B8E988D2C}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="4"/>
+    <col min="3" max="3" width="16.21875" style="4"/>
+    <col min="4" max="4" width="34.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="11"/>
+    <col min="6" max="8" width="16.21875" style="4"/>
+    <col min="9" max="10" width="27.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="16.21875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="4">
+        <v>114514</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7A0F4-E31D-4926-81F2-2CBD1758CCB6}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="4"/>
+    <col min="3" max="3" width="16.21875" style="4"/>
+    <col min="4" max="4" width="108.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="11"/>
+    <col min="6" max="8" width="16.21875" style="4"/>
+    <col min="9" max="10" width="27.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="16.21875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="4">
+        <v>20001</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5</v>
+      </c>
+      <c r="M4" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20002</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20003</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20004</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="4">
+        <v>300</v>
+      </c>
+      <c r="L7" s="4">
+        <v>300</v>
+      </c>
+      <c r="M7" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20005</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="4">
+        <v>600</v>
+      </c>
+      <c r="L8" s="4">
+        <v>600</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20006</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20007</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20008</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="4">
+        <v>600</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>20009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>20010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>20014</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>20016</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>20017</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F38427-84D0-419A-A5AE-FCDD1DFD5083}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="11"/>
-    <col min="4" max="4" width="4.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="5.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="3.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7" style="13" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="15" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="17" customWidth="1"/>
-    <col min="17" max="17" width="9" style="17" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="17" customWidth="1"/>
-    <col min="19" max="19" width="25.6640625" style="19" customWidth="1"/>
-    <col min="20" max="16384" width="16.21875" style="4"/>
+    <col min="3" max="3" width="6.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="11"/>
+    <col min="5" max="5" width="4.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7" style="13" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="15" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="17" customWidth="1"/>
+    <col min="18" max="18" width="9" style="17" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" style="19" customWidth="1"/>
+    <col min="21" max="16384" width="16.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="20" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="M3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="22" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="22">
+        <v>30001</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="20" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="22" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="22">
-        <v>30001</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="E4" s="22">
         <v>100</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="22">
+      <c r="G4" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>85</v>
+      <c r="H4" s="22">
+        <v>1</v>
       </c>
       <c r="I4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="J4" s="22">
-        <v>100</v>
       </c>
       <c r="K4" s="22">
         <v>100</v>
       </c>
-      <c r="L4" s="24">
-        <v>50</v>
+      <c r="L4" s="22">
+        <v>100</v>
       </c>
       <c r="M4" s="24">
         <v>50</v>
       </c>
-      <c r="N4" s="25">
-        <v>0.8</v>
+      <c r="N4" s="24">
+        <v>50</v>
       </c>
       <c r="O4" s="25">
         <v>0.8</v>
       </c>
-      <c r="P4" s="26">
-        <v>50</v>
+      <c r="P4" s="25">
+        <v>0.8</v>
       </c>
       <c r="Q4" s="26">
         <v>50</v>
       </c>
-      <c r="R4" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="S4" s="27" t="s">
+      <c r="R4" s="26">
+        <v>50</v>
+      </c>
+      <c r="S4" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="T4" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4">
         <v>30002</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="D5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="22">
+        <v>10</v>
+      </c>
+      <c r="L5" s="22">
+        <v>10</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>50</v>
+      </c>
+      <c r="R5" s="17">
+        <v>50</v>
+      </c>
+      <c r="V5" s="4">
+        <v>20</v>
+      </c>
+      <c r="W5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
         <v>30003</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+    <row r="7" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
         <v>30004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+    <row r="8" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
         <v>30005</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+    <row r="9" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
         <v>30006</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+    <row r="10" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
         <v>30007</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+    <row r="11" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
         <v>30008</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+    <row r="12" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
         <v>30009</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+    <row r="13" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
         <v>30010</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+    <row r="14" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
         <v>30011</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+    <row r="15" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
         <v>30012</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+    <row r="16" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
         <v>30013</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+    <row r="17" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
         <v>30014</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+    <row r="18" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
         <v>30015</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+    <row r="19" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
         <v>30016</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+    <row r="20" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
         <v>30017</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+    <row r="21" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
         <v>30018</v>
       </c>
     </row>
@@ -2772,7 +3719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05AC1D6-0EA3-4523-A7E5-E9DFE53359FC}">
   <dimension ref="A1:W3"/>
   <sheetViews>
@@ -2808,19 +3755,19 @@
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="U1" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="59" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2831,77 +3778,77 @@
         <v>7</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="46">
         <v>8</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="48">
         <v>9</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H2" s="50">
         <v>4</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J2" s="52">
         <v>5</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L2" s="54">
         <v>6</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N2" s="56">
         <v>1</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P2" s="46">
         <v>2</v>
       </c>
       <c r="Q2" s="47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R2" s="58">
         <v>3</v>
       </c>
       <c r="S2" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="V2" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="74" t="s">
+      <c r="W2" s="59" t="s">
         <v>122</v>
-      </c>
-      <c r="U2" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="W2" s="59" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="22" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3" s="63">
         <v>1</v>
@@ -2911,7 +3858,7 @@
       <c r="H3" s="66"/>
       <c r="I3" s="67"/>
       <c r="J3" s="68" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K3" s="69">
         <v>1</v>
@@ -2925,7 +3872,7 @@
       <c r="R3" s="64"/>
       <c r="S3" s="65"/>
       <c r="T3" s="76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U3" s="76">
         <v>1</v>

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE57EDE-5105-46C4-B8E4-9C608A41F974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F63996-2FB7-4C37-B2FA-4242E38F002A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="181">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -716,6 +716,18 @@
   </si>
   <si>
     <t>StoneAxe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可修改地形</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1694,9 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991DBC-989A-4537-A558-911F7EAAFE0A}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2103,6 +2115,68 @@
       </c>
       <c r="U6" s="10">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1005</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="4">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>10</v>
+      </c>
+      <c r="R7" s="4">
+        <v>360</v>
+      </c>
+      <c r="S7" s="4">
+        <v>15</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\Assets\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F63996-2FB7-4C37-B2FA-4242E38F002A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CA2403-8B88-458C-A42A-FE1E33AF60E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_ColdWeapon" sheetId="3" r:id="rId1"/>
@@ -1706,9 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991DBC-989A-4537-A558-911F7EAAFE0A}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3797,9 +3797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05AC1D6-0EA3-4523-A7E5-E9DFE53359FC}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Assets/_Data/平坦世界- 生物及物品数据.xlsx
+++ b/Assets/_Data/平坦世界- 生物及物品数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\Assets\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CA2403-8B88-458C-A42A-FE1E33AF60E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8778892C-ECC1-458E-AFFE-03960B1F04E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_ColdWeapon" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="182">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -728,6 +728,10 @@
   </si>
   <si>
     <t>可修改地形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石剑_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2837,16 +2841,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7A0F4-E31D-4926-81F2-2CBD1758CCB6}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.21875" style="4"/>
     <col min="3" max="3" width="16.21875" style="4"/>
-    <col min="4" max="4" width="108.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="11" customWidth="1"/>
     <col min="5" max="5" width="16.21875" style="11"/>
     <col min="6" max="8" width="16.21875" style="4"/>
     <col min="9" max="10" width="27.6640625" style="4" customWidth="1"/>
@@ -3795,11 +3799,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05AC1D6-0EA3-4523-A7E5-E9DFE53359FC}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3952,6 +3956,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="34">
+        <v>1</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="69">
+        <v>1</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="69">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
